--- a/biology/Microbiologie/Nucleariidae/Nucleariidae.xlsx
+++ b/biology/Microbiologie/Nucleariidae/Nucleariidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nucleariida
-Les Nucleariidae sont une famille d'amibes holomycètes[1] à filaments pseudopodes, la seule de l'ordre des Nucleariida.
+Les Nucleariidae sont une famille d'amibes holomycètes à filaments pseudopodes, la seule de l'ordre des Nucleariida.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Nucleariidae a été créée en 1979 par les protozoologistes John P. Cann (d) et Frederick C. Page (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Nucleariidae a été créée en 1979 par les protozoologistes John P. Cann (d) et Frederick C. Page (d).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Taxonomicon  (2 septembre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Taxonomicon  (2 septembre 2022) :
 Nuclearia Cienkowski, 1865
 Vampyrellidium Zopf, 1885</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) J. P. Cann et F. C. Page, « Nucleosphaerium tuckeri nov. gen. nov. sp. — A new freshwater filose amoeba without motile form in a new family nucleariidae (Filosea: Aconchulinida) feeding by ingestion only », Archiv für Protistenkunde, Elsevier, vol. 122, nos 3-4,‎ janvier 1979, p. 226-240 (ISSN 0003-9365 et 2213-5553, OCLC 4649431785, BNF 37573399, DOI 10.1016/S0003-9365(79)80034-2)</t>
         </is>
